--- a/document/API문서.xlsx
+++ b/document/API문서.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjlee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ilinkcare\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5E286-7C89-426D-A51F-274E7B2CC961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22545" windowHeight="9945"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>출발서버</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,10 +36,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>METHOD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -46,10 +44,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>user-api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,18 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/user/signup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/signin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user/{id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>교사리스트 보기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,10 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/user/changepassword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/child</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -214,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/review{no}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -255,13 +229,126 @@
   </si>
   <si>
     <t>gate-way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>static</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>templates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Security </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 요청모음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity 및 DTO 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Repository interface 모음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비즈니스 로직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리 모음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css, javascript,img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teacher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사 가입하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wishlist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심교사 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member-api</t>
+  </si>
+  <si>
+    <t>/member/{id)</t>
+  </si>
+  <si>
+    <t>/member/changepassword</t>
+  </si>
+  <si>
+    <t>/member/join</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +483,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,20 +508,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3874343</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510337</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>115198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>55709</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50330</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -444,8 +540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10427543" y="2876551"/>
-          <a:ext cx="7068441" cy="4743450"/>
+          <a:off x="12128596" y="5045786"/>
+          <a:ext cx="6935875" cy="5075368"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -719,347 +815,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="52.875" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
+    <col min="6" max="6" width="52.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B3:B24"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E80401-C7FA-468F-96AB-A24E1FB14D2C}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/API문서.xlsx
+++ b/document/API문서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\ilinkcare\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\ilinkcare\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5E286-7C89-426D-A51F-274E7B2CC961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>출발서버</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,14 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/teacher/profil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teacher/profil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/review{no}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,55 +291,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/teacher</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교사 가입하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wishlist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심교사 등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>member-api</t>
   </si>
   <si>
     <t>/member/{id)</t>
   </si>
   <si>
-    <t>/member/changepassword</t>
-  </si>
-  <si>
-    <t>/member/join</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>URI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/join</t>
+  </si>
+  <si>
+    <t>/user/update</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>/user/{id)</t>
+  </si>
+  <si>
+    <t>/user/changepassword</t>
+  </si>
+  <si>
+    <t>/teacher/profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teacher/profile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,9 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +500,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,23 +791,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F24" sqref="B2:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="52.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -845,15 +821,15 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -862,10 +838,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
@@ -875,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
@@ -888,10 +864,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
@@ -901,10 +877,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
@@ -914,10 +890,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -927,13 +903,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -945,7 +921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1" t="s">
@@ -955,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
@@ -968,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -981,10 +957,10 @@
         <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1" t="s">
@@ -994,10 +970,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="1" t="s">
@@ -1010,10 +986,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
@@ -1025,7 +1001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1" t="s">
@@ -1038,10 +1014,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>22</v>
@@ -1050,10 +1026,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -1066,7 +1042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -1079,7 +1055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
@@ -1092,10 +1068,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1107,7 +1083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -1120,7 +1096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -1130,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
@@ -1143,29 +1119,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1184,85 +1138,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E80401-C7FA-468F-96AB-A24E1FB14D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
